--- a/Excel2Json/Test/skill_level_up_consume.xlsx
+++ b/Excel2Json/Test/skill_level_up_consume.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="skill_level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -29,10 +29,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -138,11 +134,31 @@
     <t>A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[50]</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>map&lt;int,int&gt;;10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -368,23 +384,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -420,23 +419,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -646,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
@@ -657,19 +639,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
@@ -680,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -691,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -702,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -713,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -724,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -735,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -746,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -757,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -768,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -790,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -801,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -823,7 +805,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -845,7 +827,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -856,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -867,7 +849,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,7 +860,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
